--- a/test.xlsx
+++ b/test.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -418,6 +418,261 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44336.40298554041</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44336.40312292981</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44336.40312513998</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44336.41194087188</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44336.41248136299</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44336.4126260242</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44336.41282450462</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44336.41288893368</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44336.41294199166</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44336.41297484083</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44336.41298453967</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44336.41299421783</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44336.41300411682</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44336.41301447766</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44336.41302439365</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -9,33 +9,65 @@
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
     <sheet name="Payments" sheetId="2" r:id="rId2"/>
+    <sheet name="Users name" sheetId="3" r:id="rId3"/>
+    <sheet name="Merged" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="17">
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>action_time</t>
+  </si>
+  <si>
+    <t>is_entry</t>
+  </si>
+  <si>
+    <t>allowed</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>action_time</t>
-  </si>
-  <si>
-    <t>is_entry</t>
-  </si>
-  <si>
-    <t>allowed</t>
-  </si>
-  <si>
     <t>money</t>
   </si>
   <si>
     <t>coach_id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Azaasdsad</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Jikke</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Azamat</t>
+  </si>
+  <si>
+    <t>Tamaza</t>
+  </si>
+  <si>
+    <t>Billly</t>
+  </si>
+  <si>
+    <t>Poker</t>
   </si>
 </sst>
 </file>
@@ -397,13 +429,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,262 +448,214 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" s="2">
+      <c r="B2" s="2">
         <v>44336.40298554041</v>
       </c>
+      <c r="C2" t="b">
+        <v>0</v>
+      </c>
       <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44336.40312292981</v>
+      </c>
+      <c r="C3" t="b">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>7</v>
       </c>
-      <c r="C3" s="2">
-        <v>44336.40312292981</v>
-      </c>
-      <c r="D3" t="b">
+      <c r="B4" s="2">
+        <v>44336.40312513998</v>
+      </c>
+      <c r="C4" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>44336.40312513998</v>
-      </c>
       <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
         <v>9</v>
       </c>
-      <c r="C5" s="2">
+      <c r="B5" s="2">
         <v>44336.41194087188</v>
       </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="B6" s="2">
         <v>44336.41248136299</v>
       </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="B7" s="2">
         <v>44336.4126260242</v>
       </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
         <v>44336.41282450462</v>
       </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
         <v>44336.41288893368</v>
       </c>
+      <c r="C9" t="b">
+        <v>1</v>
+      </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10" s="2">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
         <v>44336.41294199166</v>
       </c>
+      <c r="C10" t="b">
+        <v>1</v>
+      </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
         <v>44336.41297484083</v>
       </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2">
         <v>44336.41298453967</v>
       </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" s="2">
+        <v>6</v>
+      </c>
+      <c r="B13" s="2">
         <v>44336.41299421783</v>
       </c>
+      <c r="C13" t="b">
+        <v>1</v>
+      </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" s="2">
+        <v>6</v>
+      </c>
+      <c r="B14" s="2">
         <v>44336.41300411682</v>
       </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <v>6</v>
-      </c>
-      <c r="C15" s="2">
+        <v>6</v>
+      </c>
+      <c r="B15" s="2">
         <v>44336.41301447766</v>
       </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <v>6</v>
-      </c>
-      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="B16" s="2">
         <v>44336.41302439365</v>
       </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
       <c r="D16" t="b">
-        <v>1</v>
-      </c>
-      <c r="E16" t="b">
         <v>1</v>
       </c>
     </row>
@@ -690,13 +674,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>5</v>
@@ -736,6 +720,432 @@
         <v>1000</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44336.40298554041</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44336.40312292981</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44336.40312513998</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44336.41194087188</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44336.41248136299</v>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44336.4126260242</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44336.41282450462</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44336.41288893368</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44336.41294199166</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44336.41297484083</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44336.41298453967</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44336.41299421783</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44336.41300411682</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44336.41301447766</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44336.41302439365</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="b">
         <v>1</v>
       </c>
     </row>
